--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,39 +49,36 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>shit</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,150 +91,144 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>local</t>
+    <t>make</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
@@ -247,16 +238,16 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -620,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,16 +701,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -810,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6986301369863014</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -889,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4871794871794872</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3866666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3837209302325582</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3725490196078431</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.84375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.348993288590604</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8085106382978723</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.291005291005291</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.8083333333333333</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2857142857142857</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2777777777777778</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7843137254901961</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1825396825396825</v>
+        <v>0.1260053619302949</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,69 +1448,45 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>120</v>
+      </c>
+      <c r="M18">
+        <v>120</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L18">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>48</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <v>43</v>
-      </c>
-      <c r="E19">
-        <v>0.02</v>
-      </c>
-      <c r="F19">
-        <v>0.98</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>330</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7464788732394366</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,12 +1498,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>0.7407407407407407</v>
@@ -1562,7 +1529,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>0.7358490566037735</v>
@@ -1588,16 +1555,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
         <v>45</v>
       </c>
-      <c r="K22">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L22">
-        <v>26</v>
-      </c>
       <c r="M22">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.71875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L23">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1635,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6702127659574468</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1661,12 +1628,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>0.6666666666666666</v>
@@ -1692,16 +1659,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.64</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1713,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6135770234986945</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L27">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M27">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1739,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1765,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1791,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.575</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1843,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1869,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.5676470588235294</v>
+        <v>0.54</v>
       </c>
       <c r="L33">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.5280898876404494</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1921,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5254237288135594</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L35">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.5205479452054794</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1973,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.502092050209205</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L37">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2025,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.4923076923076923</v>
+        <v>0.46875</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2051,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.4615384615384616</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2077,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.421875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2103,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.4142857142857143</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2129,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.2777777777777778</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2155,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.1732283464566929</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2181,47 +2148,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.1355140186915888</v>
+        <v>0.1220095693779904</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>185</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.1288343558282209</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2233,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>0.1153846153846154</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2259,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>368</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K48">
-        <v>0.1151515151515152</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2285,73 +2252,73 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>146</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K49">
-        <v>0.1124401913875598</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>371</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>0.1121495327102804</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>190</v>
+        <v>831</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K51">
-        <v>0.0764525993883792</v>
+        <v>0.06104328523862375</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2363,47 +2330,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>302</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K52">
-        <v>0.07606263982102908</v>
+        <v>0.04307116104868914</v>
       </c>
       <c r="L52">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>826</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K53">
-        <v>0.05216426193118757</v>
+        <v>0.04</v>
       </c>
       <c r="L53">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2415,47 +2382,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>854</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K54">
-        <v>0.04526748971193416</v>
+        <v>0.03579676674364896</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>464</v>
+        <v>835</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K55">
-        <v>0.03785046728971963</v>
+        <v>0.02378490175801448</v>
       </c>
       <c r="L55">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>0.96</v>
@@ -2467,111 +2434,59 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2059</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K56">
-        <v>0.03575547866205306</v>
+        <v>0.02288845905867182</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>836</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57">
-        <v>0.03384615384615385</v>
+        <v>0.009093759799310128</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58">
-        <v>0.02065182316876412</v>
-      </c>
-      <c r="L58">
-        <v>64</v>
-      </c>
-      <c r="M58">
-        <v>72</v>
-      </c>
-      <c r="N58">
-        <v>0.89</v>
-      </c>
-      <c r="O58">
-        <v>0.11</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K59">
-        <v>0.01034158570980884</v>
-      </c>
-      <c r="L59">
-        <v>33</v>
-      </c>
-      <c r="M59">
-        <v>43</v>
-      </c>
-      <c r="N59">
-        <v>0.77</v>
-      </c>
-      <c r="O59">
-        <v>0.23</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3158</v>
+        <v>3160</v>
       </c>
     </row>
   </sheetData>
